--- a/SADHGuru Channel Videos.xlsx
+++ b/SADHGuru Channel Videos.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="sheet1 1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="1905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="1903">
   <si>
     <t xml:space="preserve">VideoID</t>
   </si>
@@ -4823,12 +4823,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=PiHksypY8ew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pOpbOK7gs4w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=pOpbOK7gs4w</t>
   </si>
   <si>
     <t xml:space="preserve">Pr65fOkxRBc</t>
@@ -5854,19 +5848,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C952"/>
+  <dimension ref="A1:C951"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A790" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="A801" activeCellId="0" sqref="A801"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.9540816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.4132653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17276,18 +17270,6 @@
         <v>1902</v>
       </c>
       <c r="C951" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A952" s="1" t="s">
-        <v>1903</v>
-      </c>
-      <c r="B952" s="2" t="s">
-        <v>1904</v>
-      </c>
-      <c r="C952" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -18093,158 +18075,157 @@
     <hyperlink ref="B798" r:id="rId797" display="https://www.youtube.com/watch?v=pGp0-l7ybbg"/>
     <hyperlink ref="B799" r:id="rId798" display="https://www.youtube.com/watch?v=PHvHMiPiKao"/>
     <hyperlink ref="B800" r:id="rId799" display="https://www.youtube.com/watch?v=PiHksypY8ew"/>
-    <hyperlink ref="B801" r:id="rId800" display="https://www.youtube.com/watch?v=pOpbOK7gs4w"/>
-    <hyperlink ref="B802" r:id="rId801" display="https://www.youtube.com/watch?v=Pr65fOkxRBc"/>
-    <hyperlink ref="B803" r:id="rId802" display="https://www.youtube.com/watch?v=pWBWs7s0oA8"/>
-    <hyperlink ref="B804" r:id="rId803" display="https://www.youtube.com/watch?v=PxPlm44PCK0"/>
-    <hyperlink ref="B805" r:id="rId804" display="https://www.youtube.com/watch?v=PyxVWN0nGyg"/>
-    <hyperlink ref="B806" r:id="rId805" display="https://www.youtube.com/watch?v=Pzaai8azbqA"/>
-    <hyperlink ref="B807" r:id="rId806" display="https://www.youtube.com/watch?v=pZee2deAlsA"/>
-    <hyperlink ref="B808" r:id="rId807" display="https://www.youtube.com/watch?v=q1lfjC1eH9Y"/>
-    <hyperlink ref="B809" r:id="rId808" display="https://www.youtube.com/watch?v=Q56f_RX-jS4"/>
-    <hyperlink ref="B810" r:id="rId809" display="https://www.youtube.com/watch?v=Q6RjCNF-bg0"/>
-    <hyperlink ref="B811" r:id="rId810" display="https://www.youtube.com/watch?v=QAsJvKsd2Xk"/>
-    <hyperlink ref="B812" r:id="rId811" display="https://www.youtube.com/watch?v=qdVJsJJXPtY"/>
-    <hyperlink ref="B813" r:id="rId812" display="https://www.youtube.com/watch?v=QEkHcPt-Vpw"/>
-    <hyperlink ref="B814" r:id="rId813" display="https://www.youtube.com/watch?v=QEtjob__Fc0"/>
-    <hyperlink ref="B815" r:id="rId814" display="https://www.youtube.com/watch?v=qlboqyrPQuk"/>
-    <hyperlink ref="B816" r:id="rId815" display="https://www.youtube.com/watch?v=QlSYSZP0NLw"/>
-    <hyperlink ref="B817" r:id="rId816" display="https://www.youtube.com/watch?v=qMryd4gurQk"/>
-    <hyperlink ref="B818" r:id="rId817" display="https://www.youtube.com/watch?v=QtzHtP3YdHA"/>
-    <hyperlink ref="B819" r:id="rId818" display="https://www.youtube.com/watch?v=QXqjmIIhIrY"/>
-    <hyperlink ref="B820" r:id="rId819" display="https://www.youtube.com/watch?v=r_zQ9xD5n-0"/>
-    <hyperlink ref="B821" r:id="rId820" display="https://www.youtube.com/watch?v=R2nZUdObktk"/>
-    <hyperlink ref="B822" r:id="rId821" display="https://www.youtube.com/watch?v=r4vsgilq2mE"/>
-    <hyperlink ref="B823" r:id="rId822" display="https://www.youtube.com/watch?v=RbwQyVch4Hw"/>
-    <hyperlink ref="B824" r:id="rId823" display="https://www.youtube.com/watch?v=rbYdXbEVm6E"/>
-    <hyperlink ref="B825" r:id="rId824" display="https://www.youtube.com/watch?v=rgDQoGx0czY"/>
-    <hyperlink ref="B826" r:id="rId825" display="https://www.youtube.com/watch?v=RHyYZy3kj0s"/>
-    <hyperlink ref="B827" r:id="rId826" display="https://www.youtube.com/watch?v=RjXCSSlKtkI"/>
-    <hyperlink ref="B828" r:id="rId827" display="https://www.youtube.com/watch?v=RqHrjiWshgA"/>
-    <hyperlink ref="B829" r:id="rId828" display="https://www.youtube.com/watch?v=rTeKZRsZvDY"/>
-    <hyperlink ref="B830" r:id="rId829" display="https://www.youtube.com/watch?v=RUz7uC-qfBw"/>
-    <hyperlink ref="B831" r:id="rId830" display="https://www.youtube.com/watch?v=s2SSedCJ29M"/>
-    <hyperlink ref="B832" r:id="rId831" display="https://www.youtube.com/watch?v=S2uINxm_wbc"/>
-    <hyperlink ref="B833" r:id="rId832" display="https://www.youtube.com/watch?v=S3tqF7sYcPs"/>
-    <hyperlink ref="B834" r:id="rId833" display="https://www.youtube.com/watch?v=s4eSFy_5CRg"/>
-    <hyperlink ref="B835" r:id="rId834" display="https://www.youtube.com/watch?v=s82lFRyD-yE"/>
-    <hyperlink ref="B836" r:id="rId835" display="https://www.youtube.com/watch?v=s8raUHLaapw"/>
-    <hyperlink ref="B837" r:id="rId836" display="https://www.youtube.com/watch?v=s9qUHr__HWc"/>
-    <hyperlink ref="B838" r:id="rId837" display="https://www.youtube.com/watch?v=sAnEiZPkG3E"/>
-    <hyperlink ref="B839" r:id="rId838" display="https://www.youtube.com/watch?v=SAnUTDJ-DIY"/>
-    <hyperlink ref="B840" r:id="rId839" display="https://www.youtube.com/watch?v=Scmx_9q9YBY"/>
-    <hyperlink ref="B841" r:id="rId840" display="https://www.youtube.com/watch?v=sEeNj6ByWBI"/>
-    <hyperlink ref="B842" r:id="rId841" display="https://www.youtube.com/watch?v=SfSxB27Nexc"/>
-    <hyperlink ref="B843" r:id="rId842" display="https://www.youtube.com/watch?v=SGCdpmWQLns"/>
-    <hyperlink ref="B844" r:id="rId843" display="https://www.youtube.com/watch?v=sGjinhkxL7Y"/>
-    <hyperlink ref="B845" r:id="rId844" display="https://www.youtube.com/watch?v=SGsEW1mbwGA"/>
-    <hyperlink ref="B846" r:id="rId845" display="https://www.youtube.com/watch?v=sHFMkuYLAyY"/>
-    <hyperlink ref="B847" r:id="rId846" display="https://www.youtube.com/watch?v=SNdeNyI3SdQ"/>
-    <hyperlink ref="B848" r:id="rId847" display="https://www.youtube.com/watch?v=snr4J1YCOwU"/>
-    <hyperlink ref="B849" r:id="rId848" display="https://www.youtube.com/watch?v=SpZr7TNVDl0"/>
-    <hyperlink ref="B850" r:id="rId849" display="https://www.youtube.com/watch?v=SS7NExricYw"/>
-    <hyperlink ref="B851" r:id="rId850" display="https://www.youtube.com/watch?v=SukisKJve7o"/>
-    <hyperlink ref="B852" r:id="rId851" display="https://www.youtube.com/watch?v=swbuOphSmm4"/>
-    <hyperlink ref="B853" r:id="rId852" display="https://www.youtube.com/watch?v=SwMyba_ajXk"/>
-    <hyperlink ref="B854" r:id="rId853" display="https://www.youtube.com/watch?v=T0ErH04Aujk"/>
-    <hyperlink ref="B855" r:id="rId854" display="https://www.youtube.com/watch?v=T3xlvs3mclE"/>
-    <hyperlink ref="B856" r:id="rId855" display="https://www.youtube.com/watch?v=tCSR_oIsnDc"/>
-    <hyperlink ref="B857" r:id="rId856" display="https://www.youtube.com/watch?v=tIeTEmgwKPw"/>
-    <hyperlink ref="B858" r:id="rId857" display="https://www.youtube.com/watch?v=TIuhO3ng3hU"/>
-    <hyperlink ref="B859" r:id="rId858" display="https://www.youtube.com/watch?v=TjOjwmylXyc"/>
-    <hyperlink ref="B860" r:id="rId859" display="https://www.youtube.com/watch?v=tkPBn22UGdk"/>
-    <hyperlink ref="B861" r:id="rId860" display="https://www.youtube.com/watch?v=TkuorxpG1D8"/>
-    <hyperlink ref="B862" r:id="rId861" display="https://www.youtube.com/watch?v=tMKuQZS6GBU"/>
-    <hyperlink ref="B863" r:id="rId862" display="https://www.youtube.com/watch?v=TTDWIPAg9AE"/>
-    <hyperlink ref="B864" r:id="rId863" display="https://www.youtube.com/watch?v=TxXUtthHvb0"/>
-    <hyperlink ref="B865" r:id="rId864" display="https://www.youtube.com/watch?v=tZ0e8JRu_9U"/>
-    <hyperlink ref="B866" r:id="rId865" display="https://www.youtube.com/watch?v=ueIbAYJWNr8"/>
-    <hyperlink ref="B867" r:id="rId866" display="https://www.youtube.com/watch?v=ugD7RSBvPhM"/>
-    <hyperlink ref="B868" r:id="rId867" display="https://www.youtube.com/watch?v=UGroxC5xJaA"/>
-    <hyperlink ref="B869" r:id="rId868" display="https://www.youtube.com/watch?v=uhWr1jCXgKw"/>
-    <hyperlink ref="B870" r:id="rId869" display="https://www.youtube.com/watch?v=ulQWJH2e4PM"/>
-    <hyperlink ref="B871" r:id="rId870" display="https://www.youtube.com/watch?v=UN-Aox4TPUY"/>
-    <hyperlink ref="B872" r:id="rId871" display="https://www.youtube.com/watch?v=uoIXz3KcwME"/>
-    <hyperlink ref="B873" r:id="rId872" display="https://www.youtube.com/watch?v=UPmhk_h_y9w"/>
-    <hyperlink ref="B874" r:id="rId873" display="https://www.youtube.com/watch?v=uqdfZbv7hlM"/>
-    <hyperlink ref="B875" r:id="rId874" display="https://www.youtube.com/watch?v=uQJWVimeQeo"/>
-    <hyperlink ref="B876" r:id="rId875" display="https://www.youtube.com/watch?v=UT_nWVLi4Ws"/>
-    <hyperlink ref="B877" r:id="rId876" display="https://www.youtube.com/watch?v=uV_CGpMsEhY"/>
-    <hyperlink ref="B878" r:id="rId877" display="https://www.youtube.com/watch?v=uVgw4vdhXrE"/>
-    <hyperlink ref="B879" r:id="rId878" display="https://www.youtube.com/watch?v=V23T-YBTARY"/>
-    <hyperlink ref="B880" r:id="rId879" display="https://www.youtube.com/watch?v=V80W02u4UwM"/>
-    <hyperlink ref="B881" r:id="rId880" display="https://www.youtube.com/watch?v=va5iJSmm168"/>
-    <hyperlink ref="B882" r:id="rId881" display="https://www.youtube.com/watch?v=Vae88T30OF4"/>
-    <hyperlink ref="B883" r:id="rId882" display="https://www.youtube.com/watch?v=VEw8-DJllVw"/>
-    <hyperlink ref="B884" r:id="rId883" display="https://www.youtube.com/watch?v=vgMT8-HOIzA"/>
-    <hyperlink ref="B885" r:id="rId884" display="https://www.youtube.com/watch?v=VHEg5_o8HF4"/>
-    <hyperlink ref="B886" r:id="rId885" display="https://www.youtube.com/watch?v=vQ7ZvPghdy8"/>
-    <hyperlink ref="B887" r:id="rId886" display="https://www.youtube.com/watch?v=VqRjFxvmkWY"/>
-    <hyperlink ref="B888" r:id="rId887" display="https://www.youtube.com/watch?v=VrfvJhnUxR8"/>
-    <hyperlink ref="B889" r:id="rId888" display="https://www.youtube.com/watch?v=Vsg_PFQmw4I"/>
-    <hyperlink ref="B890" r:id="rId889" display="https://www.youtube.com/watch?v=VuqEBnXk3tI"/>
-    <hyperlink ref="B891" r:id="rId890" display="https://www.youtube.com/watch?v=VUYFiWdAj2A"/>
-    <hyperlink ref="B892" r:id="rId891" display="https://www.youtube.com/watch?v=vvDC9TSyfEg"/>
-    <hyperlink ref="B893" r:id="rId892" display="https://www.youtube.com/watch?v=VVHeP9dfc3k"/>
-    <hyperlink ref="B894" r:id="rId893" display="https://www.youtube.com/watch?v=VzsY8-aiX7M"/>
-    <hyperlink ref="B895" r:id="rId894" display="https://www.youtube.com/watch?v=W-ObFM63g28"/>
-    <hyperlink ref="B896" r:id="rId895" display="https://www.youtube.com/watch?v=w1VH_UHeZko"/>
-    <hyperlink ref="B897" r:id="rId896" display="https://www.youtube.com/watch?v=w2Qr6P-_3Qk"/>
-    <hyperlink ref="B898" r:id="rId897" display="https://www.youtube.com/watch?v=w36C4pWXNls"/>
-    <hyperlink ref="B899" r:id="rId898" display="https://www.youtube.com/watch?v=Wf4PcE3Szyc"/>
-    <hyperlink ref="B900" r:id="rId899" display="https://www.youtube.com/watch?v=WJWXf2A0Nb4"/>
-    <hyperlink ref="B901" r:id="rId900" display="https://www.youtube.com/watch?v=wm03NEoe8Iw"/>
-    <hyperlink ref="B902" r:id="rId901" display="https://www.youtube.com/watch?v=WQRKRKmUjls"/>
-    <hyperlink ref="B903" r:id="rId902" display="https://www.youtube.com/watch?v=WrkrlLC66do"/>
-    <hyperlink ref="B904" r:id="rId903" display="https://www.youtube.com/watch?v=wsTlv9oyhT4"/>
-    <hyperlink ref="B905" r:id="rId904" display="https://www.youtube.com/watch?v=wVcwAmI9bQs"/>
-    <hyperlink ref="B906" r:id="rId905" display="https://www.youtube.com/watch?v=X_fHa73_nOg"/>
-    <hyperlink ref="B907" r:id="rId906" display="https://www.youtube.com/watch?v=X-yC18V5H-U"/>
-    <hyperlink ref="B908" r:id="rId907" display="https://www.youtube.com/watch?v=X0_ptGQGhfw"/>
-    <hyperlink ref="B909" r:id="rId908" display="https://www.youtube.com/watch?v=X1MovQo7ck0"/>
-    <hyperlink ref="B910" r:id="rId909" display="https://www.youtube.com/watch?v=X5DOeWlf3Hc"/>
-    <hyperlink ref="B911" r:id="rId910" display="https://www.youtube.com/watch?v=xcOUMYVCMpY"/>
-    <hyperlink ref="B912" r:id="rId911" display="https://www.youtube.com/watch?v=XfY2Q7Ien_k"/>
-    <hyperlink ref="B913" r:id="rId912" display="https://www.youtube.com/watch?v=XLk5yks9c_Q"/>
-    <hyperlink ref="B914" r:id="rId913" display="https://www.youtube.com/watch?v=xMyXvroH48w"/>
-    <hyperlink ref="B915" r:id="rId914" display="https://www.youtube.com/watch?v=XoI_saOMEk0"/>
-    <hyperlink ref="B916" r:id="rId915" display="https://www.youtube.com/watch?v=xPrmBcU0cEI"/>
-    <hyperlink ref="B917" r:id="rId916" display="https://www.youtube.com/watch?v=xswUGZOVdc4"/>
-    <hyperlink ref="B918" r:id="rId917" display="https://www.youtube.com/watch?v=XtgcC-ub5S0"/>
-    <hyperlink ref="B919" r:id="rId918" display="https://www.youtube.com/watch?v=xTIKoD9E3ug"/>
-    <hyperlink ref="B920" r:id="rId919" display="https://www.youtube.com/watch?v=XtiYlNM9jRc"/>
-    <hyperlink ref="B921" r:id="rId920" display="https://www.youtube.com/watch?v=XYeUFflb7Bk"/>
-    <hyperlink ref="B922" r:id="rId921" display="https://www.youtube.com/watch?v=YF5IVJEOtwI"/>
-    <hyperlink ref="B923" r:id="rId922" display="https://www.youtube.com/watch?v=yFREIOHjXuk"/>
-    <hyperlink ref="B924" r:id="rId923" display="https://www.youtube.com/watch?v=YgI5Owxqwts"/>
-    <hyperlink ref="B925" r:id="rId924" display="https://www.youtube.com/watch?v=yjx1z2rzL34"/>
-    <hyperlink ref="B926" r:id="rId925" display="https://www.youtube.com/watch?v=YK6WOFxCrjI"/>
-    <hyperlink ref="B927" r:id="rId926" display="https://www.youtube.com/watch?v=yL_fgyXXnSM"/>
-    <hyperlink ref="B928" r:id="rId927" display="https://www.youtube.com/watch?v=yMMUpzsK4Ec"/>
-    <hyperlink ref="B929" r:id="rId928" display="https://www.youtube.com/watch?v=YSDhcG1Ww_Y"/>
-    <hyperlink ref="B930" r:id="rId929" display="https://www.youtube.com/watch?v=ysV9FbqBgF0"/>
-    <hyperlink ref="B931" r:id="rId930" display="https://www.youtube.com/watch?v=yUn2rGkhUwk"/>
-    <hyperlink ref="B932" r:id="rId931" display="https://www.youtube.com/watch?v=Yv6eNmb2Ljo"/>
-    <hyperlink ref="B933" r:id="rId932" display="https://www.youtube.com/watch?v=YVLxIhCHhpg"/>
-    <hyperlink ref="B934" r:id="rId933" display="https://www.youtube.com/watch?v=yw8bpB5L8xo"/>
-    <hyperlink ref="B935" r:id="rId934" display="https://www.youtube.com/watch?v=Yy_UOLD2bBE"/>
-    <hyperlink ref="B936" r:id="rId935" display="https://www.youtube.com/watch?v=yz2Q7jFMOPw"/>
-    <hyperlink ref="B937" r:id="rId936" display="https://www.youtube.com/watch?v=z3x3VFyEcZM"/>
-    <hyperlink ref="B938" r:id="rId937" display="https://www.youtube.com/watch?v=z9GXI_9DXF0"/>
-    <hyperlink ref="B939" r:id="rId938" display="https://www.youtube.com/watch?v=zbqyNtTCY7U"/>
-    <hyperlink ref="B940" r:id="rId939" display="https://www.youtube.com/watch?v=zd_DQoLvA1w"/>
-    <hyperlink ref="B941" r:id="rId940" display="https://www.youtube.com/watch?v=zEAd2z1knwc"/>
-    <hyperlink ref="B942" r:id="rId941" display="https://www.youtube.com/watch?v=zGMUJ7BlQMA"/>
-    <hyperlink ref="B943" r:id="rId942" display="https://www.youtube.com/watch?v=zM4qUybIChY"/>
-    <hyperlink ref="B944" r:id="rId943" display="https://www.youtube.com/watch?v=zmWwIVjdBOQ"/>
-    <hyperlink ref="B945" r:id="rId944" display="https://www.youtube.com/watch?v=zO8QzMWZbN4"/>
-    <hyperlink ref="B946" r:id="rId945" display="https://www.youtube.com/watch?v=zs3bps_dX9Y"/>
-    <hyperlink ref="B947" r:id="rId946" display="https://www.youtube.com/watch?v=ZW9R53MQ8lw"/>
-    <hyperlink ref="B948" r:id="rId947" display="https://www.youtube.com/watch?v=ZwwcTd9iCHw"/>
-    <hyperlink ref="B949" r:id="rId948" display="https://www.youtube.com/watch?v=ZxoxPapPxXk"/>
-    <hyperlink ref="B950" r:id="rId949" display="https://www.youtube.com/watch?v=ZXTOs60qgc4"/>
-    <hyperlink ref="B951" r:id="rId950" display="https://www.youtube.com/watch?v=Zz1xKXGreoo"/>
-    <hyperlink ref="B952" r:id="rId951" display="https://www.youtube.com/watch?v=ZzDTFb78lwE"/>
+    <hyperlink ref="B801" r:id="rId800" display="https://www.youtube.com/watch?v=Pr65fOkxRBc"/>
+    <hyperlink ref="B802" r:id="rId801" display="https://www.youtube.com/watch?v=pWBWs7s0oA8"/>
+    <hyperlink ref="B803" r:id="rId802" display="https://www.youtube.com/watch?v=PxPlm44PCK0"/>
+    <hyperlink ref="B804" r:id="rId803" display="https://www.youtube.com/watch?v=PyxVWN0nGyg"/>
+    <hyperlink ref="B805" r:id="rId804" display="https://www.youtube.com/watch?v=Pzaai8azbqA"/>
+    <hyperlink ref="B806" r:id="rId805" display="https://www.youtube.com/watch?v=pZee2deAlsA"/>
+    <hyperlink ref="B807" r:id="rId806" display="https://www.youtube.com/watch?v=q1lfjC1eH9Y"/>
+    <hyperlink ref="B808" r:id="rId807" display="https://www.youtube.com/watch?v=Q56f_RX-jS4"/>
+    <hyperlink ref="B809" r:id="rId808" display="https://www.youtube.com/watch?v=Q6RjCNF-bg0"/>
+    <hyperlink ref="B810" r:id="rId809" display="https://www.youtube.com/watch?v=QAsJvKsd2Xk"/>
+    <hyperlink ref="B811" r:id="rId810" display="https://www.youtube.com/watch?v=qdVJsJJXPtY"/>
+    <hyperlink ref="B812" r:id="rId811" display="https://www.youtube.com/watch?v=QEkHcPt-Vpw"/>
+    <hyperlink ref="B813" r:id="rId812" display="https://www.youtube.com/watch?v=QEtjob__Fc0"/>
+    <hyperlink ref="B814" r:id="rId813" display="https://www.youtube.com/watch?v=qlboqyrPQuk"/>
+    <hyperlink ref="B815" r:id="rId814" display="https://www.youtube.com/watch?v=QlSYSZP0NLw"/>
+    <hyperlink ref="B816" r:id="rId815" display="https://www.youtube.com/watch?v=qMryd4gurQk"/>
+    <hyperlink ref="B817" r:id="rId816" display="https://www.youtube.com/watch?v=QtzHtP3YdHA"/>
+    <hyperlink ref="B818" r:id="rId817" display="https://www.youtube.com/watch?v=QXqjmIIhIrY"/>
+    <hyperlink ref="B819" r:id="rId818" display="https://www.youtube.com/watch?v=r_zQ9xD5n-0"/>
+    <hyperlink ref="B820" r:id="rId819" display="https://www.youtube.com/watch?v=R2nZUdObktk"/>
+    <hyperlink ref="B821" r:id="rId820" display="https://www.youtube.com/watch?v=r4vsgilq2mE"/>
+    <hyperlink ref="B822" r:id="rId821" display="https://www.youtube.com/watch?v=RbwQyVch4Hw"/>
+    <hyperlink ref="B823" r:id="rId822" display="https://www.youtube.com/watch?v=rbYdXbEVm6E"/>
+    <hyperlink ref="B824" r:id="rId823" display="https://www.youtube.com/watch?v=rgDQoGx0czY"/>
+    <hyperlink ref="B825" r:id="rId824" display="https://www.youtube.com/watch?v=RHyYZy3kj0s"/>
+    <hyperlink ref="B826" r:id="rId825" display="https://www.youtube.com/watch?v=RjXCSSlKtkI"/>
+    <hyperlink ref="B827" r:id="rId826" display="https://www.youtube.com/watch?v=RqHrjiWshgA"/>
+    <hyperlink ref="B828" r:id="rId827" display="https://www.youtube.com/watch?v=rTeKZRsZvDY"/>
+    <hyperlink ref="B829" r:id="rId828" display="https://www.youtube.com/watch?v=RUz7uC-qfBw"/>
+    <hyperlink ref="B830" r:id="rId829" display="https://www.youtube.com/watch?v=s2SSedCJ29M"/>
+    <hyperlink ref="B831" r:id="rId830" display="https://www.youtube.com/watch?v=S2uINxm_wbc"/>
+    <hyperlink ref="B832" r:id="rId831" display="https://www.youtube.com/watch?v=S3tqF7sYcPs"/>
+    <hyperlink ref="B833" r:id="rId832" display="https://www.youtube.com/watch?v=s4eSFy_5CRg"/>
+    <hyperlink ref="B834" r:id="rId833" display="https://www.youtube.com/watch?v=s82lFRyD-yE"/>
+    <hyperlink ref="B835" r:id="rId834" display="https://www.youtube.com/watch?v=s8raUHLaapw"/>
+    <hyperlink ref="B836" r:id="rId835" display="https://www.youtube.com/watch?v=s9qUHr__HWc"/>
+    <hyperlink ref="B837" r:id="rId836" display="https://www.youtube.com/watch?v=sAnEiZPkG3E"/>
+    <hyperlink ref="B838" r:id="rId837" display="https://www.youtube.com/watch?v=SAnUTDJ-DIY"/>
+    <hyperlink ref="B839" r:id="rId838" display="https://www.youtube.com/watch?v=Scmx_9q9YBY"/>
+    <hyperlink ref="B840" r:id="rId839" display="https://www.youtube.com/watch?v=sEeNj6ByWBI"/>
+    <hyperlink ref="B841" r:id="rId840" display="https://www.youtube.com/watch?v=SfSxB27Nexc"/>
+    <hyperlink ref="B842" r:id="rId841" display="https://www.youtube.com/watch?v=SGCdpmWQLns"/>
+    <hyperlink ref="B843" r:id="rId842" display="https://www.youtube.com/watch?v=sGjinhkxL7Y"/>
+    <hyperlink ref="B844" r:id="rId843" display="https://www.youtube.com/watch?v=SGsEW1mbwGA"/>
+    <hyperlink ref="B845" r:id="rId844" display="https://www.youtube.com/watch?v=sHFMkuYLAyY"/>
+    <hyperlink ref="B846" r:id="rId845" display="https://www.youtube.com/watch?v=SNdeNyI3SdQ"/>
+    <hyperlink ref="B847" r:id="rId846" display="https://www.youtube.com/watch?v=snr4J1YCOwU"/>
+    <hyperlink ref="B848" r:id="rId847" display="https://www.youtube.com/watch?v=SpZr7TNVDl0"/>
+    <hyperlink ref="B849" r:id="rId848" display="https://www.youtube.com/watch?v=SS7NExricYw"/>
+    <hyperlink ref="B850" r:id="rId849" display="https://www.youtube.com/watch?v=SukisKJve7o"/>
+    <hyperlink ref="B851" r:id="rId850" display="https://www.youtube.com/watch?v=swbuOphSmm4"/>
+    <hyperlink ref="B852" r:id="rId851" display="https://www.youtube.com/watch?v=SwMyba_ajXk"/>
+    <hyperlink ref="B853" r:id="rId852" display="https://www.youtube.com/watch?v=T0ErH04Aujk"/>
+    <hyperlink ref="B854" r:id="rId853" display="https://www.youtube.com/watch?v=T3xlvs3mclE"/>
+    <hyperlink ref="B855" r:id="rId854" display="https://www.youtube.com/watch?v=tCSR_oIsnDc"/>
+    <hyperlink ref="B856" r:id="rId855" display="https://www.youtube.com/watch?v=tIeTEmgwKPw"/>
+    <hyperlink ref="B857" r:id="rId856" display="https://www.youtube.com/watch?v=TIuhO3ng3hU"/>
+    <hyperlink ref="B858" r:id="rId857" display="https://www.youtube.com/watch?v=TjOjwmylXyc"/>
+    <hyperlink ref="B859" r:id="rId858" display="https://www.youtube.com/watch?v=tkPBn22UGdk"/>
+    <hyperlink ref="B860" r:id="rId859" display="https://www.youtube.com/watch?v=TkuorxpG1D8"/>
+    <hyperlink ref="B861" r:id="rId860" display="https://www.youtube.com/watch?v=tMKuQZS6GBU"/>
+    <hyperlink ref="B862" r:id="rId861" display="https://www.youtube.com/watch?v=TTDWIPAg9AE"/>
+    <hyperlink ref="B863" r:id="rId862" display="https://www.youtube.com/watch?v=TxXUtthHvb0"/>
+    <hyperlink ref="B864" r:id="rId863" display="https://www.youtube.com/watch?v=tZ0e8JRu_9U"/>
+    <hyperlink ref="B865" r:id="rId864" display="https://www.youtube.com/watch?v=ueIbAYJWNr8"/>
+    <hyperlink ref="B866" r:id="rId865" display="https://www.youtube.com/watch?v=ugD7RSBvPhM"/>
+    <hyperlink ref="B867" r:id="rId866" display="https://www.youtube.com/watch?v=UGroxC5xJaA"/>
+    <hyperlink ref="B868" r:id="rId867" display="https://www.youtube.com/watch?v=uhWr1jCXgKw"/>
+    <hyperlink ref="B869" r:id="rId868" display="https://www.youtube.com/watch?v=ulQWJH2e4PM"/>
+    <hyperlink ref="B870" r:id="rId869" display="https://www.youtube.com/watch?v=UN-Aox4TPUY"/>
+    <hyperlink ref="B871" r:id="rId870" display="https://www.youtube.com/watch?v=uoIXz3KcwME"/>
+    <hyperlink ref="B872" r:id="rId871" display="https://www.youtube.com/watch?v=UPmhk_h_y9w"/>
+    <hyperlink ref="B873" r:id="rId872" display="https://www.youtube.com/watch?v=uqdfZbv7hlM"/>
+    <hyperlink ref="B874" r:id="rId873" display="https://www.youtube.com/watch?v=uQJWVimeQeo"/>
+    <hyperlink ref="B875" r:id="rId874" display="https://www.youtube.com/watch?v=UT_nWVLi4Ws"/>
+    <hyperlink ref="B876" r:id="rId875" display="https://www.youtube.com/watch?v=uV_CGpMsEhY"/>
+    <hyperlink ref="B877" r:id="rId876" display="https://www.youtube.com/watch?v=uVgw4vdhXrE"/>
+    <hyperlink ref="B878" r:id="rId877" display="https://www.youtube.com/watch?v=V23T-YBTARY"/>
+    <hyperlink ref="B879" r:id="rId878" display="https://www.youtube.com/watch?v=V80W02u4UwM"/>
+    <hyperlink ref="B880" r:id="rId879" display="https://www.youtube.com/watch?v=va5iJSmm168"/>
+    <hyperlink ref="B881" r:id="rId880" display="https://www.youtube.com/watch?v=Vae88T30OF4"/>
+    <hyperlink ref="B882" r:id="rId881" display="https://www.youtube.com/watch?v=VEw8-DJllVw"/>
+    <hyperlink ref="B883" r:id="rId882" display="https://www.youtube.com/watch?v=vgMT8-HOIzA"/>
+    <hyperlink ref="B884" r:id="rId883" display="https://www.youtube.com/watch?v=VHEg5_o8HF4"/>
+    <hyperlink ref="B885" r:id="rId884" display="https://www.youtube.com/watch?v=vQ7ZvPghdy8"/>
+    <hyperlink ref="B886" r:id="rId885" display="https://www.youtube.com/watch?v=VqRjFxvmkWY"/>
+    <hyperlink ref="B887" r:id="rId886" display="https://www.youtube.com/watch?v=VrfvJhnUxR8"/>
+    <hyperlink ref="B888" r:id="rId887" display="https://www.youtube.com/watch?v=Vsg_PFQmw4I"/>
+    <hyperlink ref="B889" r:id="rId888" display="https://www.youtube.com/watch?v=VuqEBnXk3tI"/>
+    <hyperlink ref="B890" r:id="rId889" display="https://www.youtube.com/watch?v=VUYFiWdAj2A"/>
+    <hyperlink ref="B891" r:id="rId890" display="https://www.youtube.com/watch?v=vvDC9TSyfEg"/>
+    <hyperlink ref="B892" r:id="rId891" display="https://www.youtube.com/watch?v=VVHeP9dfc3k"/>
+    <hyperlink ref="B893" r:id="rId892" display="https://www.youtube.com/watch?v=VzsY8-aiX7M"/>
+    <hyperlink ref="B894" r:id="rId893" display="https://www.youtube.com/watch?v=W-ObFM63g28"/>
+    <hyperlink ref="B895" r:id="rId894" display="https://www.youtube.com/watch?v=w1VH_UHeZko"/>
+    <hyperlink ref="B896" r:id="rId895" display="https://www.youtube.com/watch?v=w2Qr6P-_3Qk"/>
+    <hyperlink ref="B897" r:id="rId896" display="https://www.youtube.com/watch?v=w36C4pWXNls"/>
+    <hyperlink ref="B898" r:id="rId897" display="https://www.youtube.com/watch?v=Wf4PcE3Szyc"/>
+    <hyperlink ref="B899" r:id="rId898" display="https://www.youtube.com/watch?v=WJWXf2A0Nb4"/>
+    <hyperlink ref="B900" r:id="rId899" display="https://www.youtube.com/watch?v=wm03NEoe8Iw"/>
+    <hyperlink ref="B901" r:id="rId900" display="https://www.youtube.com/watch?v=WQRKRKmUjls"/>
+    <hyperlink ref="B902" r:id="rId901" display="https://www.youtube.com/watch?v=WrkrlLC66do"/>
+    <hyperlink ref="B903" r:id="rId902" display="https://www.youtube.com/watch?v=wsTlv9oyhT4"/>
+    <hyperlink ref="B904" r:id="rId903" display="https://www.youtube.com/watch?v=wVcwAmI9bQs"/>
+    <hyperlink ref="B905" r:id="rId904" display="https://www.youtube.com/watch?v=X_fHa73_nOg"/>
+    <hyperlink ref="B906" r:id="rId905" display="https://www.youtube.com/watch?v=X-yC18V5H-U"/>
+    <hyperlink ref="B907" r:id="rId906" display="https://www.youtube.com/watch?v=X0_ptGQGhfw"/>
+    <hyperlink ref="B908" r:id="rId907" display="https://www.youtube.com/watch?v=X1MovQo7ck0"/>
+    <hyperlink ref="B909" r:id="rId908" display="https://www.youtube.com/watch?v=X5DOeWlf3Hc"/>
+    <hyperlink ref="B910" r:id="rId909" display="https://www.youtube.com/watch?v=xcOUMYVCMpY"/>
+    <hyperlink ref="B911" r:id="rId910" display="https://www.youtube.com/watch?v=XfY2Q7Ien_k"/>
+    <hyperlink ref="B912" r:id="rId911" display="https://www.youtube.com/watch?v=XLk5yks9c_Q"/>
+    <hyperlink ref="B913" r:id="rId912" display="https://www.youtube.com/watch?v=xMyXvroH48w"/>
+    <hyperlink ref="B914" r:id="rId913" display="https://www.youtube.com/watch?v=XoI_saOMEk0"/>
+    <hyperlink ref="B915" r:id="rId914" display="https://www.youtube.com/watch?v=xPrmBcU0cEI"/>
+    <hyperlink ref="B916" r:id="rId915" display="https://www.youtube.com/watch?v=xswUGZOVdc4"/>
+    <hyperlink ref="B917" r:id="rId916" display="https://www.youtube.com/watch?v=XtgcC-ub5S0"/>
+    <hyperlink ref="B918" r:id="rId917" display="https://www.youtube.com/watch?v=xTIKoD9E3ug"/>
+    <hyperlink ref="B919" r:id="rId918" display="https://www.youtube.com/watch?v=XtiYlNM9jRc"/>
+    <hyperlink ref="B920" r:id="rId919" display="https://www.youtube.com/watch?v=XYeUFflb7Bk"/>
+    <hyperlink ref="B921" r:id="rId920" display="https://www.youtube.com/watch?v=YF5IVJEOtwI"/>
+    <hyperlink ref="B922" r:id="rId921" display="https://www.youtube.com/watch?v=yFREIOHjXuk"/>
+    <hyperlink ref="B923" r:id="rId922" display="https://www.youtube.com/watch?v=YgI5Owxqwts"/>
+    <hyperlink ref="B924" r:id="rId923" display="https://www.youtube.com/watch?v=yjx1z2rzL34"/>
+    <hyperlink ref="B925" r:id="rId924" display="https://www.youtube.com/watch?v=YK6WOFxCrjI"/>
+    <hyperlink ref="B926" r:id="rId925" display="https://www.youtube.com/watch?v=yL_fgyXXnSM"/>
+    <hyperlink ref="B927" r:id="rId926" display="https://www.youtube.com/watch?v=yMMUpzsK4Ec"/>
+    <hyperlink ref="B928" r:id="rId927" display="https://www.youtube.com/watch?v=YSDhcG1Ww_Y"/>
+    <hyperlink ref="B929" r:id="rId928" display="https://www.youtube.com/watch?v=ysV9FbqBgF0"/>
+    <hyperlink ref="B930" r:id="rId929" display="https://www.youtube.com/watch?v=yUn2rGkhUwk"/>
+    <hyperlink ref="B931" r:id="rId930" display="https://www.youtube.com/watch?v=Yv6eNmb2Ljo"/>
+    <hyperlink ref="B932" r:id="rId931" display="https://www.youtube.com/watch?v=YVLxIhCHhpg"/>
+    <hyperlink ref="B933" r:id="rId932" display="https://www.youtube.com/watch?v=yw8bpB5L8xo"/>
+    <hyperlink ref="B934" r:id="rId933" display="https://www.youtube.com/watch?v=Yy_UOLD2bBE"/>
+    <hyperlink ref="B935" r:id="rId934" display="https://www.youtube.com/watch?v=yz2Q7jFMOPw"/>
+    <hyperlink ref="B936" r:id="rId935" display="https://www.youtube.com/watch?v=z3x3VFyEcZM"/>
+    <hyperlink ref="B937" r:id="rId936" display="https://www.youtube.com/watch?v=z9GXI_9DXF0"/>
+    <hyperlink ref="B938" r:id="rId937" display="https://www.youtube.com/watch?v=zbqyNtTCY7U"/>
+    <hyperlink ref="B939" r:id="rId938" display="https://www.youtube.com/watch?v=zd_DQoLvA1w"/>
+    <hyperlink ref="B940" r:id="rId939" display="https://www.youtube.com/watch?v=zEAd2z1knwc"/>
+    <hyperlink ref="B941" r:id="rId940" display="https://www.youtube.com/watch?v=zGMUJ7BlQMA"/>
+    <hyperlink ref="B942" r:id="rId941" display="https://www.youtube.com/watch?v=zM4qUybIChY"/>
+    <hyperlink ref="B943" r:id="rId942" display="https://www.youtube.com/watch?v=zmWwIVjdBOQ"/>
+    <hyperlink ref="B944" r:id="rId943" display="https://www.youtube.com/watch?v=zO8QzMWZbN4"/>
+    <hyperlink ref="B945" r:id="rId944" display="https://www.youtube.com/watch?v=zs3bps_dX9Y"/>
+    <hyperlink ref="B946" r:id="rId945" display="https://www.youtube.com/watch?v=ZW9R53MQ8lw"/>
+    <hyperlink ref="B947" r:id="rId946" display="https://www.youtube.com/watch?v=ZwwcTd9iCHw"/>
+    <hyperlink ref="B948" r:id="rId947" display="https://www.youtube.com/watch?v=ZxoxPapPxXk"/>
+    <hyperlink ref="B949" r:id="rId948" display="https://www.youtube.com/watch?v=ZXTOs60qgc4"/>
+    <hyperlink ref="B950" r:id="rId949" display="https://www.youtube.com/watch?v=Zz1xKXGreoo"/>
+    <hyperlink ref="B951" r:id="rId950" display="https://www.youtube.com/watch?v=ZzDTFb78lwE"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
